--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fzd6</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.217473</v>
+        <v>0.2147063333333333</v>
       </c>
       <c r="H2">
-        <v>0.652419</v>
+        <v>0.644119</v>
       </c>
       <c r="I2">
-        <v>0.003819775075312922</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="J2">
-        <v>0.003819775075312921</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.415956</v>
+        <v>19.84402066666667</v>
       </c>
       <c r="N2">
-        <v>37.247868</v>
+        <v>59.532062</v>
       </c>
       <c r="O2">
-        <v>0.8598042313376485</v>
+        <v>0.8956779416773022</v>
       </c>
       <c r="P2">
-        <v>0.8598042313376485</v>
+        <v>0.8956779416773021</v>
       </c>
       <c r="Q2">
-        <v>2.700135199188</v>
+        <v>4.260636915930888</v>
       </c>
       <c r="R2">
-        <v>24.301216792692</v>
+        <v>38.345732243378</v>
       </c>
       <c r="S2">
-        <v>0.003284258772512135</v>
+        <v>0.003419465106636333</v>
       </c>
       <c r="T2">
-        <v>0.003284258772512135</v>
+        <v>0.003419465106636333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.217473</v>
+        <v>0.2147063333333333</v>
       </c>
       <c r="H3">
-        <v>0.652419</v>
+        <v>0.644119</v>
       </c>
       <c r="I3">
-        <v>0.003819775075312922</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="J3">
-        <v>0.003819775075312921</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>5.237639</v>
       </c>
       <c r="O3">
-        <v>0.1209020654395331</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="P3">
-        <v>0.1209020654395331</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="Q3">
-        <v>0.3796816887489999</v>
+        <v>0.3748514216712222</v>
       </c>
       <c r="R3">
-        <v>3.417135198741</v>
+        <v>3.373662795041</v>
       </c>
       <c r="S3">
-        <v>0.0004618186961197803</v>
+        <v>0.000300845010234277</v>
       </c>
       <c r="T3">
-        <v>0.0004618186961197802</v>
+        <v>0.0003008450102342771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,51 +661,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.217473</v>
+        <v>0.2147063333333333</v>
       </c>
       <c r="H4">
-        <v>0.652419</v>
+        <v>0.644119</v>
       </c>
       <c r="I4">
-        <v>0.003819775075312922</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="J4">
-        <v>0.003819775075312921</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2786096666666666</v>
+        <v>0.5556126666666666</v>
       </c>
       <c r="N4">
-        <v>0.8358289999999999</v>
+        <v>1.666838</v>
       </c>
       <c r="O4">
-        <v>0.01929370322281843</v>
+        <v>0.02507808362071368</v>
       </c>
       <c r="P4">
-        <v>0.01929370322281843</v>
+        <v>0.02507808362071367</v>
       </c>
       <c r="Q4">
-        <v>0.060590080039</v>
+        <v>0.1192935584135555</v>
       </c>
       <c r="R4">
-        <v>0.5453107203509999</v>
+        <v>1.073642025722</v>
       </c>
       <c r="S4">
-        <v>7.369760668100643E-05</v>
+        <v>9.574159180670563E-05</v>
       </c>
       <c r="T4">
-        <v>7.369760668100641E-05</v>
+        <v>9.574159180670563E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>55.43187966666667</v>
+        <v>0.2147063333333333</v>
       </c>
       <c r="H5">
-        <v>166.295639</v>
+        <v>0.644119</v>
       </c>
       <c r="I5">
-        <v>0.9736257481548445</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="J5">
-        <v>0.9736257481548444</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>12.415956</v>
+        <v>0.009795</v>
       </c>
       <c r="N5">
-        <v>37.247868</v>
+        <v>0.029385</v>
       </c>
       <c r="O5">
-        <v>0.8598042313376485</v>
+        <v>0.0004421062437949407</v>
       </c>
       <c r="P5">
-        <v>0.8598042313376485</v>
+        <v>0.0004421062437949407</v>
       </c>
       <c r="Q5">
-        <v>688.239778938628</v>
+        <v>0.002103048535</v>
       </c>
       <c r="R5">
-        <v>6194.158010447652</v>
+        <v>0.018927436815</v>
       </c>
       <c r="S5">
-        <v>0.837127538002819</v>
+        <v>1.68784649452439E-06</v>
       </c>
       <c r="T5">
-        <v>0.8371275380028189</v>
+        <v>1.68784649452439E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,10 +791,10 @@
         <v>166.295639</v>
       </c>
       <c r="I6">
-        <v>0.9736257481548445</v>
+        <v>0.9856461909412342</v>
       </c>
       <c r="J6">
-        <v>0.9736257481548444</v>
+        <v>0.9856461909412343</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.745879666666666</v>
+        <v>19.84402066666667</v>
       </c>
       <c r="N6">
-        <v>5.237639</v>
+        <v>59.532062</v>
       </c>
       <c r="O6">
-        <v>0.1209020654395331</v>
+        <v>0.8956779416773022</v>
       </c>
       <c r="P6">
-        <v>0.1209020654395331</v>
+        <v>0.8956779416773021</v>
       </c>
       <c r="Q6">
-        <v>96.77739159514677</v>
+        <v>1099.991365697513</v>
       </c>
       <c r="R6">
-        <v>870.9965243563209</v>
+        <v>9899.922291277617</v>
       </c>
       <c r="S6">
-        <v>0.1177133639170313</v>
+        <v>0.8828215515243178</v>
       </c>
       <c r="T6">
-        <v>0.1177133639170313</v>
+        <v>0.8828215515243178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,45 +853,45 @@
         <v>166.295639</v>
       </c>
       <c r="I7">
-        <v>0.9736257481548445</v>
+        <v>0.9856461909412342</v>
       </c>
       <c r="J7">
-        <v>0.9736257481548444</v>
+        <v>0.9856461909412343</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2786096666666666</v>
+        <v>1.745879666666666</v>
       </c>
       <c r="N7">
-        <v>0.8358289999999999</v>
+        <v>5.237639</v>
       </c>
       <c r="O7">
-        <v>0.01929370322281843</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="P7">
-        <v>0.01929370322281843</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="Q7">
-        <v>15.44385751663678</v>
+        <v>96.77739159514677</v>
       </c>
       <c r="R7">
-        <v>138.994717649731</v>
+        <v>870.9965243563209</v>
       </c>
       <c r="S7">
-        <v>0.01878484623499412</v>
+        <v>0.07767076148486636</v>
       </c>
       <c r="T7">
-        <v>0.01878484623499413</v>
+        <v>0.07767076148486637</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.284104333333333</v>
+        <v>55.43187966666667</v>
       </c>
       <c r="H8">
-        <v>3.852313</v>
+        <v>166.295639</v>
       </c>
       <c r="I8">
-        <v>0.02255447676984261</v>
+        <v>0.9856461909412342</v>
       </c>
       <c r="J8">
-        <v>0.02255447676984261</v>
+        <v>0.9856461909412343</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.415956</v>
+        <v>0.5556126666666666</v>
       </c>
       <c r="N8">
-        <v>37.247868</v>
+        <v>1.666838</v>
       </c>
       <c r="O8">
-        <v>0.8598042313376485</v>
+        <v>0.02507808362071368</v>
       </c>
       <c r="P8">
-        <v>0.8598042313376485</v>
+        <v>0.02507808362071367</v>
       </c>
       <c r="Q8">
-        <v>15.943382902076</v>
+        <v>30.79865447994244</v>
       </c>
       <c r="R8">
-        <v>143.490446118684</v>
+        <v>277.1878903194819</v>
       </c>
       <c r="S8">
-        <v>0.01939243456231738</v>
+        <v>0.02471811759686219</v>
       </c>
       <c r="T8">
-        <v>0.01939243456231738</v>
+        <v>0.02471811759686219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.284104333333333</v>
+        <v>55.43187966666667</v>
       </c>
       <c r="H9">
-        <v>3.852313</v>
+        <v>166.295639</v>
       </c>
       <c r="I9">
-        <v>0.02255447676984261</v>
+        <v>0.9856461909412342</v>
       </c>
       <c r="J9">
-        <v>0.02255447676984261</v>
+        <v>0.9856461909412343</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.745879666666666</v>
+        <v>0.009795</v>
       </c>
       <c r="N9">
-        <v>5.237639</v>
+        <v>0.029385</v>
       </c>
       <c r="O9">
-        <v>0.1209020654395331</v>
+        <v>0.0004421062437949407</v>
       </c>
       <c r="P9">
-        <v>0.1209020654395331</v>
+        <v>0.0004421062437949407</v>
       </c>
       <c r="Q9">
-        <v>2.241891645445222</v>
+        <v>0.5429552613350001</v>
       </c>
       <c r="R9">
-        <v>20.177024809007</v>
+        <v>4.886597352015</v>
       </c>
       <c r="S9">
-        <v>0.00272688282638194</v>
+        <v>0.00043576033518782</v>
       </c>
       <c r="T9">
-        <v>0.00272688282638194</v>
+        <v>0.00043576033518782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5925393333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.777618</v>
+      </c>
+      <c r="I10">
+        <v>0.01053606950359399</v>
+      </c>
+      <c r="J10">
+        <v>0.01053606950359399</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.84402066666667</v>
+      </c>
+      <c r="N10">
+        <v>59.532062</v>
+      </c>
+      <c r="O10">
+        <v>0.8956779416773022</v>
+      </c>
+      <c r="P10">
+        <v>0.8956779416773021</v>
+      </c>
+      <c r="Q10">
+        <v>11.75836277647955</v>
+      </c>
+      <c r="R10">
+        <v>105.825264988316</v>
+      </c>
+      <c r="S10">
+        <v>0.009436925046348056</v>
+      </c>
+      <c r="T10">
+        <v>0.009436925046348058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.284104333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.852313</v>
-      </c>
-      <c r="I10">
-        <v>0.02255447676984261</v>
-      </c>
-      <c r="J10">
-        <v>0.02255447676984261</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.2786096666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.8358289999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.01929370322281843</v>
-      </c>
-      <c r="P10">
-        <v>0.01929370322281843</v>
-      </c>
-      <c r="Q10">
-        <v>0.3577638802752222</v>
-      </c>
-      <c r="R10">
-        <v>3.219874922477</v>
-      </c>
-      <c r="S10">
-        <v>0.0004351593811432958</v>
-      </c>
-      <c r="T10">
-        <v>0.0004351593811432958</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5925393333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.777618</v>
+      </c>
+      <c r="I11">
+        <v>0.01053606950359399</v>
+      </c>
+      <c r="J11">
+        <v>0.01053606950359399</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.745879666666666</v>
+      </c>
+      <c r="N11">
+        <v>5.237639</v>
+      </c>
+      <c r="O11">
+        <v>0.07880186845818919</v>
+      </c>
+      <c r="P11">
+        <v>0.07880186845818919</v>
+      </c>
+      <c r="Q11">
+        <v>1.034502373766889</v>
+      </c>
+      <c r="R11">
+        <v>9.310521363902</v>
+      </c>
+      <c r="S11">
+        <v>0.000830261963088552</v>
+      </c>
+      <c r="T11">
+        <v>0.0008302619630885522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5925393333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.777618</v>
+      </c>
+      <c r="I12">
+        <v>0.01053606950359399</v>
+      </c>
+      <c r="J12">
+        <v>0.01053606950359399</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5556126666666666</v>
+      </c>
+      <c r="N12">
+        <v>1.666838</v>
+      </c>
+      <c r="O12">
+        <v>0.02507808362071368</v>
+      </c>
+      <c r="P12">
+        <v>0.02507808362071367</v>
+      </c>
+      <c r="Q12">
+        <v>0.3292223590982222</v>
+      </c>
+      <c r="R12">
+        <v>2.963001231883999</v>
+      </c>
+      <c r="S12">
+        <v>0.0002642244320447812</v>
+      </c>
+      <c r="T12">
+        <v>0.0002642244320447812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5925393333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.777618</v>
+      </c>
+      <c r="I13">
+        <v>0.01053606950359399</v>
+      </c>
+      <c r="J13">
+        <v>0.01053606950359399</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.009795</v>
+      </c>
+      <c r="N13">
+        <v>0.029385</v>
+      </c>
+      <c r="O13">
+        <v>0.0004421062437949407</v>
+      </c>
+      <c r="P13">
+        <v>0.0004421062437949407</v>
+      </c>
+      <c r="Q13">
+        <v>0.00580392277</v>
+      </c>
+      <c r="R13">
+        <v>0.05223530493</v>
+      </c>
+      <c r="S13">
+        <v>4.658062112596363E-06</v>
+      </c>
+      <c r="T13">
+        <v>4.658062112596364E-06</v>
       </c>
     </row>
   </sheetData>
